--- a/src/test/resources/test-data/OneCSiOS_TD.xlsx
+++ b/src/test/resources/test-data/OneCSiOS_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4989CB-2777-9146-A6B6-F1954A043703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDFDB8A-272A-CC4A-B7BE-ABF9E6045D72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -86,6 +86,30 @@
   </si>
   <si>
     <t>A short, complete sentence that gives overview of the error.</t>
+  </si>
+  <si>
+    <t>CS_CREATE_A_SECURE</t>
+  </si>
+  <si>
+    <t>Charles Stanley. Create a secure financial future</t>
+  </si>
+  <si>
+    <t>Don't have an account?,Create one on our website</t>
+  </si>
+  <si>
+    <t>DON’T_HAVE_AN_ACCOUNT_LNK</t>
+  </si>
+  <si>
+    <t>CS_SECURE_URL</t>
+  </si>
+  <si>
+    <t>TESAT_DATA</t>
+  </si>
+  <si>
+    <t>SDFSDFDSFSDFDS</t>
+  </si>
+  <si>
+    <t>‎charles-stanley.co.uk, secure</t>
   </si>
 </sst>
 </file>
@@ -418,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,8 +546,40 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A11:A15">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/test-data/OneCSiOS_TD.xlsx
+++ b/src/test/resources/test-data/OneCSiOS_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDFDB8A-272A-CC4A-B7BE-ABF9E6045D72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E05DB-468A-F94B-963F-52614C607E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Correct_Password</t>
   </si>
   <si>
-    <t>Alice</t>
-  </si>
-  <si>
     <t>Password123$</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>‎charles-stanley.co.uk, secure</t>
+  </si>
+  <si>
+    <t>LETTER_A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>incorrect</t>
   </si>
 </sst>
 </file>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -479,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -487,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -495,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -503,20 +509,20 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>123123</v>
@@ -524,62 +530,70 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:A15">
+  <conditionalFormatting sqref="A11:A16">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/test-data/OneCSiOS_TD.xlsx
+++ b/src/test/resources/test-data/OneCSiOS_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E05DB-468A-F94B-963F-52614C607E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E60F315-92AE-C14B-AD68-1B3FF6EDA477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -100,22 +100,16 @@
     <t>CS_SECURE_URL</t>
   </si>
   <si>
-    <t>TESAT_DATA</t>
-  </si>
-  <si>
-    <t>SDFSDFDSFSDFDS</t>
-  </si>
-  <si>
     <t>‎charles-stanley.co.uk, secure</t>
   </si>
   <si>
+    <t>incorrect</t>
+  </si>
+  <si>
     <t>LETTER_A</t>
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>incorrect</t>
   </si>
 </sst>
 </file>
@@ -448,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -485,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -573,23 +567,15 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test-data/OneCSiOS_TD.xlsx
+++ b/src/test/resources/test-data/OneCSiOS_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E60F315-92AE-C14B-AD68-1B3FF6EDA477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A77FBB8-54B4-9343-B82D-DFADCB77C8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -110,6 +110,36 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>ONE_DIGIT</t>
+  </si>
+  <si>
+    <t>TWO_DIGIT</t>
+  </si>
+  <si>
+    <t>THREE_DIGIT</t>
+  </si>
+  <si>
+    <t>FOUR_DIGIT</t>
+  </si>
+  <si>
+    <t>FIVE_DIGIT</t>
+  </si>
+  <si>
+    <t>INCORRECT_2FA_CODE</t>
+  </si>
+  <si>
+    <t>WEB_USERNAME</t>
+  </si>
+  <si>
+    <t>karenaccount</t>
+  </si>
+  <si>
+    <t>WEB_PASSWORD</t>
+  </si>
+  <si>
+    <t>Portfolio1</t>
   </si>
 </sst>
 </file>
@@ -145,11 +175,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,8 +614,72 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:A16">
+  <conditionalFormatting sqref="A11:A23">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/test-data/OneCSiOS_TD.xlsx
+++ b/src/test/resources/test-data/OneCSiOS_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A77FBB8-54B4-9343-B82D-DFADCB77C8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C6CCA-55C1-8045-BED5-C4B96E9F0D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Portfolio1</t>
+  </si>
+  <si>
+    <t>INCORRECT_SIX_DIGIT_PIN</t>
+  </si>
+  <si>
+    <t>ALBHABETS</t>
+  </si>
+  <si>
+    <t>abcdef</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,8 +687,24 @@
         <v>39</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4">
+        <v>303030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:A23">
+  <conditionalFormatting sqref="A11:A25">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/test-data/OneCSiOS_TD.xlsx
+++ b/src/test/resources/test-data/OneCSiOS_TD.xlsx
@@ -3,17 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C6CCA-55C1-8045-BED5-C4B96E9F0D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED299CE-618E-5B4A-ABA9-555740748F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTDATA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -490,7 +499,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
